--- a/C6/A4_C6_D.xlsx
+++ b/C6/A4_C6_D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\OneDrive\Documents\GitHub\24321-A4\C6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B5A773-590C-4824-982C-DDC41DED7672}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BA3414-1396-4A4E-99C2-03D95E578AD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{A561D4CA-81D6-4E95-A484-A64BEE181464}"/>
+    <workbookView xWindow="660" yWindow="1665" windowWidth="13785" windowHeight="11385" xr2:uid="{A561D4CA-81D6-4E95-A484-A64BEE181464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Qm,</t>
   </si>
   <si>
     <t xml:space="preserve">T, </t>
-  </si>
-  <si>
-    <t>℃</t>
   </si>
   <si>
     <r>
@@ -56,13 +53,7 @@
     </r>
   </si>
   <si>
-    <t>m2/s</t>
-  </si>
-  <si>
     <t>Ho1,</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>Ho2,</t>
@@ -72,9 +63,6 @@
   </si>
   <si>
     <t>Hv2,</t>
-  </si>
-  <si>
-    <t>m3/s e-3</t>
   </si>
 </sst>
 </file>
@@ -117,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,32 +141,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,287 +473,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE8EAB5-23C4-4EF3-BDFE-7B9CF0D8CD66}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0870999999999999E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13.19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12.4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="B3" s="1">
         <v>17.3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7</v>
+        <v>10.9</v>
       </c>
       <c r="E3" s="1">
-        <v>13.19</v>
+        <v>10.43</v>
       </c>
       <c r="F3" s="1">
-        <v>13.9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>12.4</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="B4" s="1">
         <v>17.3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D4" s="1">
-        <v>10.9</v>
+        <v>8.51</v>
       </c>
       <c r="E4" s="1">
-        <v>10.43</v>
+        <v>8.15</v>
       </c>
       <c r="F4" s="1">
-        <v>11</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="G4" s="1">
-        <v>9.84</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="B5" s="1">
         <v>17.3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D5" s="1">
-        <v>8.51</v>
+        <v>6.2</v>
       </c>
       <c r="E5" s="1">
-        <v>8.15</v>
+        <v>5.85</v>
       </c>
       <c r="F5" s="1">
-        <v>8.7200000000000006</v>
+        <v>6.32</v>
       </c>
       <c r="G5" s="1">
-        <v>7.76</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B6" s="1">
         <v>17.3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D6" s="1">
-        <v>6.2</v>
+        <v>4.96</v>
       </c>
       <c r="E6" s="1">
-        <v>5.85</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F6" s="1">
-        <v>6.32</v>
+        <v>5.07</v>
       </c>
       <c r="G6" s="1">
-        <v>5.56</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="B7" s="1">
         <v>17.3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D7" s="1">
-        <v>4.96</v>
+        <v>3.28</v>
       </c>
       <c r="E7" s="1">
-        <v>4.6500000000000004</v>
+        <v>3.03</v>
       </c>
       <c r="F7" s="1">
-        <v>5.07</v>
+        <v>3.32</v>
       </c>
       <c r="G7" s="1">
-        <v>4.42</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="B8" s="1">
         <v>17.3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D8" s="1">
-        <v>3.28</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>3.03</v>
+        <v>1.98</v>
       </c>
       <c r="F8" s="1">
-        <v>3.32</v>
+        <v>2.27</v>
       </c>
       <c r="G8" s="1">
-        <v>2.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="B9" s="1">
         <v>17.3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D9" s="1">
-        <v>2.1800000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="E9" s="1">
-        <v>1.98</v>
+        <v>0.73</v>
       </c>
       <c r="F9" s="1">
-        <v>2.27</v>
+        <v>0.93</v>
       </c>
       <c r="G9" s="1">
-        <v>1.88</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="B10" s="1">
         <v>17.3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D10" s="1">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="E10" s="1">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="F10" s="1">
-        <v>0.93</v>
+        <v>0.26</v>
       </c>
       <c r="G10" s="1">
-        <v>0.68</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="B11" s="1">
         <v>17.3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1.0870999999999999E-6</v>
       </c>
       <c r="D11" s="1">
-        <v>0.24</v>
+        <v>-0.09</v>
       </c>
       <c r="E11" s="1">
-        <v>0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="F11" s="1">
-        <v>0.26</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.0870999999999999E-6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-0.09</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-0.18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G12" s="1">
         <v>-0.2</v>
       </c>
     </row>
